--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1348654.362407618</v>
+        <v>1452833.99685869</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>105.4771979831552</v>
       </c>
       <c r="X2" t="n">
-        <v>270.4868569307869</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>85.89540321630872</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>150.206247434698</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>8.276279573899627</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>358.0072011553102</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -950,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>25.54245692170241</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>37.59657533957286</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.3353942071051</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>18.12224013931815</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>221.6913032830526</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833905</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899578</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>172.0260335000794</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.0235632167813</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>136.759319468713</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>174.1401868743384</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>18.70843787977262</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176216</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.9742079424038</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>186.8342257697961</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="33">
@@ -3190,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>174.7683347992599</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.14989839348819</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161913385</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812118</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4319,16 +4321,16 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810557</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>3108.772528910857</v>
       </c>
       <c r="X2" t="n">
-        <v>2736.118358115654</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064755</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>2024.192384342476</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>1855.256201414569</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>1855.256201414569</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>1855.256201414569</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3238.842788057344</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>3238.842788057344</v>
       </c>
       <c r="T4" t="n">
-        <v>1494.054724415577</v>
+        <v>3017.07617262687</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.054724415577</v>
+        <v>3017.07617262687</v>
       </c>
       <c r="V4" t="n">
-        <v>1494.054724415577</v>
+        <v>2762.391684420983</v>
       </c>
       <c r="W4" t="n">
-        <v>1494.054724415577</v>
+        <v>2472.974514384023</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>2244.984963486006</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>2024.192384342476</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484277</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.299101484277</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1593.774406038973</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,13 +4582,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548399</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,49 +4649,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>822.6111008985771</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>653.6749179706702</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>503.5582785583345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1889.318209361651</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1667.551593931178</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1378.448727056821</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1123.764238850934</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>834.3470688139736</v>
       </c>
       <c r="X7" t="n">
-        <v>1004.259565728817</v>
+        <v>606.3575179159562</v>
       </c>
       <c r="Y7" t="n">
-        <v>1004.259565728817</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4804,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.03470992366</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653545</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.1430866838564</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4963,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556436</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X10" t="n">
-        <v>584.5841306576262</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="Y10" t="n">
-        <v>363.7915515140961</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998295</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5303,13 +5305,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5355,16 +5357,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951537</v>
@@ -5428,7 +5430,7 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,25 +5454,25 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510509</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
         <v>1729.097755135313</v>
@@ -5510,19 +5512,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5540,13 +5542,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>842.6091804069459</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>637.9025067654818</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5680,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2125.967522499092</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,19 +5764,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>557.5558870561822</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2021.163366826619</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1732.088140170817</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1477.40365196493</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1187.986481927969</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>959.9969310299521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.2043518864219</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3212.252935505192</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>3809.631423131744</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>4437.229386686351</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>4437.229386686351</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>4437.229386686351</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4670.491047061233</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>2757.723669558406</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467152</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.581883569135</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y31" t="n">
-        <v>3449.581883569135</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="32">
@@ -6692,46 +6694,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>2815.530845237134</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U34" t="n">
-        <v>4404.185983673937</v>
+        <v>3990.063098351769</v>
       </c>
       <c r="V34" t="n">
-        <v>4149.50149546805</v>
+        <v>3735.378610145882</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>3445.961440108921</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>3217.971889210904</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>2997.179310067374</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3809.631423131744</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.308687575531</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>632.7243904253734</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253734</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,19 +7423,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558406</v>
+        <v>2815.530845237133</v>
       </c>
       <c r="C43" t="n">
-        <v>2728.681365661314</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="D43" t="n">
-        <v>2728.681365661314</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661314</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661314</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305901</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328842</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.25592267304</v>
+        <v>3990.063098351768</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467153</v>
+        <v>3735.378610145881</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430193</v>
+        <v>3445.96144010892</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>3217.971889210903</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>2997.179310067373</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G46" t="n">
-        <v>202.3036411041575</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823012</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>180.5336875992863</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.808416965156</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>80.6461308585753</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>43.26526345294988</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>146.8157004124962</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405067</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.85777223953346</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>65.30341755403194</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405067</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165158</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165158</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920848.7479165155</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
@@ -26326,34 +26328,34 @@
         <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062539</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319391</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319397</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
@@ -26451,13 +26453,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,19 +26524,19 @@
         <v>-1016321.423007003</v>
       </c>
       <c r="C6" t="n">
-        <v>312423.3227205902</v>
+        <v>312423.3227205897</v>
       </c>
       <c r="D6" t="n">
         <v>312423.3227205897</v>
       </c>
       <c r="E6" t="n">
-        <v>64324.82506314857</v>
+        <v>64324.82506314828</v>
       </c>
       <c r="F6" t="n">
-        <v>389737.2868705041</v>
+        <v>389737.286870504</v>
       </c>
       <c r="G6" t="n">
-        <v>389737.286870504</v>
+        <v>389737.2868705039</v>
       </c>
       <c r="H6" t="n">
         <v>389737.286870504</v>
@@ -26543,25 +26545,25 @@
         <v>389737.2868705039</v>
       </c>
       <c r="J6" t="n">
-        <v>172206.0844732262</v>
+        <v>172206.0844732264</v>
       </c>
       <c r="K6" t="n">
         <v>389737.2868705039</v>
       </c>
       <c r="L6" t="n">
+        <v>389737.2868705041</v>
+      </c>
+      <c r="M6" t="n">
+        <v>304682.258934992</v>
+      </c>
+      <c r="N6" t="n">
+        <v>389737.2868705039</v>
+      </c>
+      <c r="O6" t="n">
+        <v>389737.2868705039</v>
+      </c>
+      <c r="P6" t="n">
         <v>389737.286870504</v>
-      </c>
-      <c r="M6" t="n">
-        <v>304682.2589349922</v>
-      </c>
-      <c r="N6" t="n">
-        <v>389737.286870504</v>
-      </c>
-      <c r="O6" t="n">
-        <v>389737.286870504</v>
-      </c>
-      <c r="P6" t="n">
-        <v>389737.2868705039</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26805,28 +26807,28 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>243.7637707342578</v>
       </c>
       <c r="X2" t="n">
-        <v>99.24424374768216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.036749453738608</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>69.34270184147121</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>346.4067620467833</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>23.92316891695162</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>120.8915057248668</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>152.172449991869</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>158.520714960758</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.9025444489485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>149.1245809593097</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>4.018352105984548</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
@@ -31853,10 +31855,10 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32077,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>270.948695672725</v>
+        <v>620.1193660647489</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32102,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,10 +32311,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32321,25 +32323,25 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>601.0567753070482</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>538.1718564803244</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>166.2270851128129</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>138.5955196772184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>332.1692388321076</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,31 +33982,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>537.6437863443696</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
@@ -35501,10 +35503,10 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507067</v>
+        <v>477.9853321427306</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>469.7150632237149</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>406.8301443969911</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.5475811488489</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>510.7887951929326</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>189.5729943876631</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1452833.99685869</v>
+        <v>1448821.386844697</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>324.5143282092433</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>105.4771979831552</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>85.89540321630872</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>120.4263234899699</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>271.2903285220046</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>358.0072011553102</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>37.59657533957286</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>404.1495662496051</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>92.47445699814396</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>131.3542190999258</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>221.6913032830526</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899578</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>146.9393756113382</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>136.759319468713</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852985</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>84.53948348634594</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>129.719450923318</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176216</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>87.2147151485299</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>186.8342257697961</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673027</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.594095449514675</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8253826161913385</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1918.208919851716</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1918.208919851716</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1559.943221244966</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>3108.772528910857</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X2" t="n">
-        <v>2735.306770649777</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2304.808759915838</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2024.192384342476</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>1855.256201414569</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>1855.256201414569</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1855.256201414569</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1708.366253916658</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3238.842788057344</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3238.842788057344</v>
+        <v>1715.821339846051</v>
       </c>
       <c r="T4" t="n">
-        <v>3017.07617262687</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="U4" t="n">
-        <v>3017.07617262687</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V4" t="n">
-        <v>2762.391684420983</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W4" t="n">
-        <v>2472.974514384023</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X4" t="n">
-        <v>2244.984963486006</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>2024.192384342476</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1952.040104645723</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1952.040104645723</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1593.774406038973</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,13 +4582,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.040104645723</v>
+        <v>2619.198073544677</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.5649387724261</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1889.318209361651</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1667.551593931178</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1378.448727056821</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1123.764238850934</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>834.3470688139736</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>606.3575179159562</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.5649387724261</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1183.313506713635</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>772.3276019240275</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3121.906610713899</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3121.906610713899</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W8" t="n">
-        <v>3121.906610713899</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,7 +4886,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1794.613518694628</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036486</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X10" t="n">
-        <v>945.3964936596652</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>945.3964936596652</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468473</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832664</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5469,19 +5469,19 @@
         <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681612</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5542,7 +5542,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069459</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
         <v>484.8112968429802</v>
@@ -5667,7 +5667,7 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.967522499092</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5758,25 +5758,25 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,22 +6220,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6244,22 +6244,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558406</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630499</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="D28" t="n">
-        <v>2588.787486630499</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>2588.787486630499</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>2588.787486630499</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430193</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.4638174991042</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711973</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797747</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1268.904861472874</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>1048.112282329344</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6691,58 +6691,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2815.530845237134</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C34" t="n">
-        <v>2646.594662309227</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D34" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3990.063098351769</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V34" t="n">
-        <v>3735.378610145882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W34" t="n">
-        <v>3445.961440108921</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>3217.971889210904</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y34" t="n">
-        <v>2997.179310067374</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6961,7 +6961,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7031,13 +7031,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E37" t="n">
         <v>484.8112968429802</v>
@@ -7089,10 +7089,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7198,25 +7198,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>94.65038286230657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,13 +7426,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2815.530845237133</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>3990.063098351768</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3735.378610145881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3445.96144010892</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3217.971889210903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>2997.179310067373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,28 +7648,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409392978</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992863</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>32.8926045705991</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>80.6461308585753</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>201.6449909028982</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>18.89602209489433</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405067</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>58.20633287440134</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>65.30341755403194</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0.9259388694754307</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194143</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>147.0213775686977</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165158</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165158</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.842883194</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
@@ -26438,7 +26438,7 @@
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
@@ -26447,16 +26447,16 @@
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>312423.3227205897</v>
       </c>
       <c r="D6" t="n">
-        <v>312423.3227205897</v>
+        <v>312423.32272059</v>
       </c>
       <c r="E6" t="n">
-        <v>64324.82506314828</v>
+        <v>63977.44580879108</v>
       </c>
       <c r="F6" t="n">
-        <v>389737.286870504</v>
+        <v>389389.907616147</v>
       </c>
       <c r="G6" t="n">
-        <v>389737.2868705039</v>
+        <v>389389.9076161471</v>
       </c>
       <c r="H6" t="n">
-        <v>389737.286870504</v>
+        <v>389389.9076161468</v>
       </c>
       <c r="I6" t="n">
-        <v>389737.2868705039</v>
+        <v>389389.9076161469</v>
       </c>
       <c r="J6" t="n">
-        <v>172206.0844732264</v>
+        <v>171858.7052188694</v>
       </c>
       <c r="K6" t="n">
-        <v>389737.2868705039</v>
+        <v>389389.9076161471</v>
       </c>
       <c r="L6" t="n">
-        <v>389737.2868705041</v>
+        <v>389389.9076161468</v>
       </c>
       <c r="M6" t="n">
-        <v>304682.258934992</v>
+        <v>304334.879680635</v>
       </c>
       <c r="N6" t="n">
-        <v>389737.2868705039</v>
+        <v>389389.9076161468</v>
       </c>
       <c r="O6" t="n">
-        <v>389737.2868705039</v>
+        <v>389389.9076161468</v>
       </c>
       <c r="P6" t="n">
-        <v>389737.286870504</v>
+        <v>389389.9076161468</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,25 +26807,25 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>57.41604186301851</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>243.7637707342578</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.036749453738608</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>69.34270184147198</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>111.4435131414759</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>23.92316891695162</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27824,16 +27824,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>152.172449991869</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>6.77215940384832</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>158.520714960758</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>154.857619105687</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>4.018352105984548</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647489</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>601.0567753070482</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32478,7 +32478,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175677</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,19 +32794,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>538.1718564803244</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,16 +33022,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,13 +33496,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33970,16 +33970,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>537.6437863443696</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236508</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817577</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427306</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>469.7150632237149</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36126,7 +36126,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>406.8301443969911</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>395.0475418999251</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1448821.386844697</v>
+        <v>1450581.917147482</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283199</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>278.7686522972277</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>324.5143282092433</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>120.4263234899699</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>271.2903285220046</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>93.4583209939527</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>404.1495662496051</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>131.3542190999258</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428257</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>101.3999237630426</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.9393756113382</v>
+        <v>81.27859867330056</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>87.21471514852985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>147.3642529779079</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U22" t="n">
-        <v>84.53948348634594</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>129.719450923318</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>87.2147151485299</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>147.6895341487369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.594095449514675</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>246.8141177896371</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>68.17501931583779</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4309,43 +4309,43 @@
         <v>1918.208919851716</v>
       </c>
       <c r="C2" t="n">
-        <v>1918.208919851716</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1559.943221244966</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1715.821339846051</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1494.054724415577</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.054724415577</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V4" t="n">
-        <v>1494.054724415577</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W4" t="n">
-        <v>1494.054724415577</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="5">
@@ -4567,10 +4567,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520489</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
-        <v>2619.198073544677</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1569.101759311879</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
-        <v>1569.101759311879</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="D8" t="n">
-        <v>1569.101759311879</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1183.313506713635</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>772.3276019240275</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612893</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.840931351813</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>1955.701599376001</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1794.613518694628</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1539.929030488741</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1250.51186045178</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681612</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804959</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U22" t="n">
-        <v>1959.113366595131</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1704.428878389244</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1415.011708352283</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1187.022157454266</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.2295783107356</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
         <v>402.7245934908938</v>
@@ -6141,58 +6141,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192548</v>
@@ -6229,40 +6229,40 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>763.7541388327652</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6457,40 +6457,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6536,7 +6536,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
         <v>95.58405025273903</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.843151638089</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101821</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>572.9069687101821</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>572.9069687101821</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683287</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958739</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>633.992644467967</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369644</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261136</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770323</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>634.3345878491255</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072721</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409392978</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.8926045705991</v>
+        <v>98.55338150863673</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>71.22040037418685</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U22" t="n">
-        <v>201.6449909028982</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>18.89602209489433</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>58.20633287440134</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9259388694754307</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.0213775686977</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>78.25894333073138</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165155</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="G2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="I2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="N2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-1016321.423007003</v>
       </c>
       <c r="C6" t="n">
-        <v>312423.3227205897</v>
+        <v>312423.3227205895</v>
       </c>
       <c r="D6" t="n">
-        <v>312423.32272059</v>
+        <v>312423.3227205898</v>
       </c>
       <c r="E6" t="n">
-        <v>63977.44580879108</v>
+        <v>64290.08713771292</v>
       </c>
       <c r="F6" t="n">
-        <v>389389.907616147</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="G6" t="n">
-        <v>389389.9076161471</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="H6" t="n">
-        <v>389389.9076161468</v>
+        <v>389702.5489450682</v>
       </c>
       <c r="I6" t="n">
-        <v>389389.9076161469</v>
+        <v>389702.5489450682</v>
       </c>
       <c r="J6" t="n">
-        <v>171858.7052188694</v>
+        <v>172171.3465477906</v>
       </c>
       <c r="K6" t="n">
-        <v>389389.9076161471</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="L6" t="n">
-        <v>389389.9076161468</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="M6" t="n">
-        <v>304334.879680635</v>
+        <v>304647.5210095564</v>
       </c>
       <c r="N6" t="n">
-        <v>389389.9076161468</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="O6" t="n">
-        <v>389389.9076161468</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="P6" t="n">
-        <v>389389.9076161468</v>
+        <v>389702.5489450682</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26795,16 +26795,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>86.50423947377988</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57.41604186301851</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>69.34270184147198</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.457529283320781</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.4435131414759</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>277.2566436803251</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356952</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>261.2247206267302</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6.77215940384832</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>154.857619105687</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,10 +31600,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31612,28 +31612,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35260,19 +35260,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
